--- a/build/BOM.xlsx
+++ b/build/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Synology\Projets\keyboard_steamdeck\build\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3127C6B5-45CD-46FB-BDAA-3AF89B25698A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FAA598-23BB-468D-97D4-AD9BBFE1CE12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="5400" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="5610" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
     <t>Item</t>
   </si>
@@ -168,16 +168,20 @@
   </si>
   <si>
     <t>Mechanic</t>
+  </si>
+  <si>
+    <t>https://www.pcbway.com/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +206,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -211,7 +222,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -354,12 +365,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -373,7 +422,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -385,32 +434,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -690,10 +756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:K13"/>
+  <dimension ref="B2:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,31 +811,31 @@
       <c r="B4" s="8">
         <v>1</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="5">
         <v>49.99</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="4">
         <v>47</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="9" t="s">
         <v>13</v>
       </c>
     </row>
@@ -778,52 +844,52 @@
         <f>B4+1</f>
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="16">
         <v>147.6</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="4">
         <v>5</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="8">
-        <f t="shared" ref="B6:B14" si="0">B5+1</f>
+        <f t="shared" ref="B6:B13" si="0">B5+1</f>
         <v>3</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="9" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="9">
+      <c r="F6" s="13"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="4">
         <v>5</v>
       </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="12" t="s">
+      <c r="J6" s="13"/>
+      <c r="K6" s="9" t="s">
         <v>26</v>
       </c>
     </row>
@@ -832,19 +898,19 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="9" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="9">
+      <c r="F7" s="13"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="4">
         <v>5</v>
       </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="12" t="s">
+      <c r="J7" s="13"/>
+      <c r="K7" s="9" t="s">
         <v>27</v>
       </c>
     </row>
@@ -853,19 +919,19 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="9" t="s">
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="9">
+      <c r="F8" s="13"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="4">
         <v>10</v>
       </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="12" t="s">
+      <c r="J8" s="13"/>
+      <c r="K8" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -874,19 +940,19 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="9" t="s">
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="9">
+      <c r="F9" s="13"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="4">
         <v>5</v>
       </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="12" t="s">
+      <c r="J9" s="13"/>
+      <c r="K9" s="9" t="s">
         <v>29</v>
       </c>
     </row>
@@ -895,23 +961,23 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9">
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4">
         <v>1</v>
       </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="13" t="s">
+      <c r="J10" s="4"/>
+      <c r="K10" s="10" t="s">
         <v>31</v>
       </c>
     </row>
@@ -920,25 +986,29 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="9">
+      <c r="G11" s="17">
+        <v>213.01</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="4">
         <v>5</v>
       </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="12" t="s">
+      <c r="J11" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="9" t="s">
         <v>42</v>
       </c>
     </row>
@@ -947,53 +1017,62 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="9">
+      <c r="F12" s="13"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="4">
         <v>2</v>
       </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="12" t="s">
+      <c r="J12" s="19"/>
+      <c r="K12" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="14">
+      <c r="B13" s="11">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="15">
+      <c r="F13" s="14"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="7">
         <v>2</v>
       </c>
-      <c r="J13" s="15"/>
-      <c r="K13" s="16" t="s">
+      <c r="J13" s="20"/>
+      <c r="K13" s="12" t="s">
         <v>41</v>
       </c>
     </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G15" s="22">
+        <f>G4+G5+G10+G11</f>
+        <v>410.6</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="J11:J13"/>
     <mergeCell ref="F11:F13"/>
     <mergeCell ref="G11:G13"/>
     <mergeCell ref="H11:H13"/>
@@ -1001,13 +1080,12 @@
     <mergeCell ref="J5:J9"/>
     <mergeCell ref="H5:H9"/>
     <mergeCell ref="G5:G9"/>
-    <mergeCell ref="D5:D9"/>
-    <mergeCell ref="C5:C9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J4" r:id="rId1" display="https://boutique-keycaps.com/products/cherry-mx-red?variant=39810772959301" xr:uid="{C02549FC-4CD5-4C94-BEF8-1E94719F7D7E}"/>
     <hyperlink ref="J5" r:id="rId2" xr:uid="{769A2D7B-F576-471D-96F0-2C46C2106194}"/>
     <hyperlink ref="K10" r:id="rId3" xr:uid="{5E009263-8E3A-4FE5-81BD-94C05FFD2184}"/>
+    <hyperlink ref="J11" r:id="rId4" xr:uid="{E2CB574B-AE05-45E2-B2EA-05405A404B5E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
